--- a/biology/Botanique/Lathyrus/Lathyrus.xlsx
+++ b/biology/Botanique/Lathyrus/Lathyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus est un genre de plantes herbacées de la famille des Fabaceae (sous-famille des Faboideae selon la classification phylogénétique). C'est le genre des gesses (nom vernaculaire d'origine incertaine), même si certaines espèces sont nommées « pois » dans le langage courant  (dont les pois-fleur et pois de senteur).
 Ce genre est proche des genres Vicia (les vesces et fèves) et Pisum (les petits pois). Il comprend une centaine d'espèces. Ce sont des plantes annuelles ou vivaces grimpantes à fleurs papilionacées.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Lathyrus désignait en latin (lathyros) et en grec (lathyros et lathyron) une plante de la famille des Légumineuses[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Lathyrus désignait en latin (lathyros) et en grec (lathyros et lathyron) une plante de la famille des Légumineuses. 
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste d'espèces
-Selon The Plant List            (31 décembre 2017)[3] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (31 décembre 2017) :
 Lathyrus allardii Batt.
 Lathyrus alpestris (Waldst. &amp; Kit.) Celak.
 Lathyrus amphicarpos L.
@@ -708,8 +727,43 @@
 Lathyrus zionis C.L.Hitchc.
 			Lathyrus nissolia.
 			Lathyrus cicera (Gesse chiche).
-Synonymes
-Selon Kew Science[4]  :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lathyrus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lathyrus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kew Science  :
 Anatropostylia (Plitmann) Kupicha
 Anurus C.Presl
 Aphaca Mill.
@@ -728,36 +782,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lathyrus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lathyrus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alimentaire
-De nombreuses gesses ont été utilisées comme plante de survie grâce à leurs feuilles (crues, elles ont un goût de petit pois prononcé, d'où leur mélange possible avec d'autres salades sauvages ; cuites pour faire des soupes), leurs graines (consommées crues lorsqu'elles sont très jeunes, ou cuites, bouillies, elles ont le goût de lentilles), et, pour la gesse tubéreuse, le tubercule dont le goût rappelle les châtaignes. Les jeunes pousses et les jeunes gousses de certaines espèces (L. latifolius, L. japonicus) sont également comestibles[5]. 
-Culture
-Certaines espèces sont cultivées :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses gesses ont été utilisées comme plante de survie grâce à leurs feuilles (crues, elles ont un goût de petit pois prononcé, d'où leur mélange possible avec d'autres salades sauvages ; cuites pour faire des soupes), leurs graines (consommées crues lorsqu'elles sont très jeunes, ou cuites, bouillies, elles ont le goût de lentilles), et, pour la gesse tubéreuse, le tubercule dont le goût rappelle les châtaignes. Les jeunes pousses et les jeunes gousses de certaines espèces (L. latifolius, L. japonicus) sont également comestibles. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lathyrus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lathyrus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Certaines espèces sont cultivées :
 soit comme fourrage ou dans les prairies naturelles,
 Lathyrus cicera — La gessette ou jarosse
 Lathyrus aphaca — La gesse aphylle ou gesse sans feuilles
@@ -776,64 +870,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Lathyrus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lathyrus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines des espèces de Lathyrus sont parfois toxiques. Leur ingestion sur une longue période (plusieurs mois) à l'exclusion de toute autre nourriture, est à l'origine d'une intoxication alimentaire responsable d'une maladie neurodégénérative, le lathyrisme[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines des espèces de Lathyrus sont parfois toxiques. Leur ingestion sur une longue période (plusieurs mois) à l'exclusion de toute autre nourriture, est à l'origine d'une intoxication alimentaire responsable d'une maladie neurodégénérative, le lathyrisme.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lathyrus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lathyrus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 18e jour du mois de messidor (des moissons) du calendrier républicain / révolutionnaire français est dénommé jour de la gesse[7], généralement chaque 6 juillet du calendrier grégorien.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18e jour du mois de messidor (des moissons) du calendrier républicain / révolutionnaire français est dénommé jour de la gesse, généralement chaque 6 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
